--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntn1-Unc5a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntn1-Unc5a.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.990837</v>
+        <v>2.629231666666667</v>
       </c>
       <c r="H2">
-        <v>5.972511</v>
+        <v>7.887695</v>
       </c>
       <c r="I2">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047068</v>
       </c>
       <c r="J2">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047067</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.837459</v>
+        <v>0.9956583333333334</v>
       </c>
       <c r="N2">
-        <v>2.512377</v>
+        <v>2.986975</v>
       </c>
       <c r="O2">
-        <v>0.1861007731134217</v>
+        <v>0.1535710477437721</v>
       </c>
       <c r="P2">
-        <v>0.1861007731134217</v>
+        <v>0.153571047743772</v>
       </c>
       <c r="Q2">
-        <v>1.667244363183</v>
+        <v>2.617816419180556</v>
       </c>
       <c r="R2">
-        <v>15.005199268647</v>
+        <v>23.560347772625</v>
       </c>
       <c r="S2">
-        <v>0.02089624315882635</v>
+        <v>0.02171979219360348</v>
       </c>
       <c r="T2">
-        <v>0.02089624315882635</v>
+        <v>0.02171979219360347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.990837</v>
+        <v>2.629231666666667</v>
       </c>
       <c r="H3">
-        <v>5.972511</v>
+        <v>7.887695</v>
       </c>
       <c r="I3">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047068</v>
       </c>
       <c r="J3">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047067</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>5.593532</v>
       </c>
       <c r="O3">
-        <v>0.4143329721752205</v>
+        <v>0.2875834480798523</v>
       </c>
       <c r="P3">
-        <v>0.4143329721752204</v>
+        <v>0.2875834480798522</v>
       </c>
       <c r="Q3">
-        <v>3.711936822094667</v>
+        <v>4.902230487637778</v>
       </c>
       <c r="R3">
-        <v>33.407431398852</v>
+        <v>44.12007438873999</v>
       </c>
       <c r="S3">
-        <v>0.04652319488224747</v>
+        <v>0.04067337445685727</v>
       </c>
       <c r="T3">
-        <v>0.04652319488224747</v>
+        <v>0.04067337445685725</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.990837</v>
+        <v>2.629231666666667</v>
       </c>
       <c r="H4">
-        <v>5.972511</v>
+        <v>7.887695</v>
       </c>
       <c r="I4">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047068</v>
       </c>
       <c r="J4">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047067</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.320881333333333</v>
+        <v>2.910118</v>
       </c>
       <c r="N4">
-        <v>3.962644</v>
+        <v>8.730354</v>
       </c>
       <c r="O4">
-        <v>0.2935272500796106</v>
+        <v>0.4488586650219809</v>
       </c>
       <c r="P4">
-        <v>0.2935272500796106</v>
+        <v>0.4488586650219808</v>
       </c>
       <c r="Q4">
-        <v>2.629659431009333</v>
+        <v>7.651374399336667</v>
       </c>
       <c r="R4">
-        <v>23.666934879084</v>
+        <v>68.86236959403</v>
       </c>
       <c r="S4">
-        <v>0.0329585777038495</v>
+        <v>0.0634827792855966</v>
       </c>
       <c r="T4">
-        <v>0.03295857770384949</v>
+        <v>0.06348277928559658</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.990837</v>
+        <v>2.629231666666667</v>
       </c>
       <c r="H5">
-        <v>5.972511</v>
+        <v>7.887695</v>
       </c>
       <c r="I5">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047068</v>
       </c>
       <c r="J5">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047067</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4771786666666666</v>
+        <v>0.7130856666666667</v>
       </c>
       <c r="N5">
-        <v>1.431536</v>
+        <v>2.139257</v>
       </c>
       <c r="O5">
-        <v>0.1060390046317472</v>
+        <v>0.1099868391543949</v>
       </c>
       <c r="P5">
-        <v>0.1060390046317472</v>
+        <v>0.1099868391543948</v>
       </c>
       <c r="Q5">
-        <v>0.9499849452106666</v>
+        <v>1.874867415846111</v>
       </c>
       <c r="R5">
-        <v>8.549864506896</v>
+        <v>16.873806742615</v>
       </c>
       <c r="S5">
-        <v>0.01190654282642041</v>
+        <v>0.01555560976864942</v>
       </c>
       <c r="T5">
-        <v>0.01190654282642041</v>
+        <v>0.01555560976864941</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>34.28296</v>
       </c>
       <c r="I6">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="J6">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.837459</v>
+        <v>0.9956583333333334</v>
       </c>
       <c r="N6">
-        <v>2.512377</v>
+        <v>2.986975</v>
       </c>
       <c r="O6">
-        <v>0.1861007731134217</v>
+        <v>0.1535710477437721</v>
       </c>
       <c r="P6">
-        <v>0.1861007731134217</v>
+        <v>0.153571047743772</v>
       </c>
       <c r="Q6">
-        <v>9.57019113288</v>
+        <v>11.37803827177778</v>
       </c>
       <c r="R6">
-        <v>86.13172019592</v>
+        <v>102.402344446</v>
       </c>
       <c r="S6">
-        <v>0.1199470487981215</v>
+        <v>0.09440258110659962</v>
       </c>
       <c r="T6">
-        <v>0.1199470487981215</v>
+        <v>0.0944025811065996</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>34.28296</v>
       </c>
       <c r="I7">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="J7">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>5.593532</v>
       </c>
       <c r="O7">
-        <v>0.4143329721752205</v>
+        <v>0.2875834480798523</v>
       </c>
       <c r="P7">
-        <v>0.4143329721752204</v>
+        <v>0.2875834480798522</v>
       </c>
       <c r="Q7">
         <v>21.30698153496889</v>
@@ -883,10 +883,10 @@
         <v>191.76283381472</v>
       </c>
       <c r="S7">
-        <v>0.2670489563301424</v>
+        <v>0.1767821485959408</v>
       </c>
       <c r="T7">
-        <v>0.2670489563301423</v>
+        <v>0.1767821485959408</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>34.28296</v>
       </c>
       <c r="I8">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="J8">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.320881333333333</v>
+        <v>2.910118</v>
       </c>
       <c r="N8">
-        <v>3.962644</v>
+        <v>8.730354</v>
       </c>
       <c r="O8">
-        <v>0.2935272500796106</v>
+        <v>0.4488586650219809</v>
       </c>
       <c r="P8">
-        <v>0.2935272500796106</v>
+        <v>0.4488586650219808</v>
       </c>
       <c r="Q8">
-        <v>15.09457397180445</v>
+        <v>33.25581966309333</v>
       </c>
       <c r="R8">
-        <v>135.85116574624</v>
+        <v>299.30237696784</v>
       </c>
       <c r="S8">
-        <v>0.189186357476439</v>
+        <v>0.2759206058217181</v>
       </c>
       <c r="T8">
-        <v>0.189186357476439</v>
+        <v>0.275920605821718</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>34.28296</v>
       </c>
       <c r="I9">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="J9">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4771786666666666</v>
+        <v>0.7130856666666667</v>
       </c>
       <c r="N9">
-        <v>1.431536</v>
+        <v>2.139257</v>
       </c>
       <c r="O9">
-        <v>0.1060390046317472</v>
+        <v>0.1099868391543949</v>
       </c>
       <c r="P9">
-        <v>0.1060390046317472</v>
+        <v>0.1099868391543948</v>
       </c>
       <c r="Q9">
-        <v>5.453032380728889</v>
+        <v>8.148895795635557</v>
       </c>
       <c r="R9">
-        <v>49.07729142656</v>
+        <v>73.34006216072001</v>
       </c>
       <c r="S9">
-        <v>0.06834504473184862</v>
+        <v>0.06761067047777802</v>
       </c>
       <c r="T9">
-        <v>0.06834504473184862</v>
+        <v>0.067610670477778</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.085149333333333</v>
+        <v>4.24731</v>
       </c>
       <c r="H10">
-        <v>12.255448</v>
+        <v>12.74193</v>
       </c>
       <c r="I10">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="J10">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.837459</v>
+        <v>0.9956583333333334</v>
       </c>
       <c r="N10">
-        <v>2.512377</v>
+        <v>2.986975</v>
       </c>
       <c r="O10">
-        <v>0.1861007731134217</v>
+        <v>0.1535710477437721</v>
       </c>
       <c r="P10">
-        <v>0.1861007731134217</v>
+        <v>0.153571047743772</v>
       </c>
       <c r="Q10">
-        <v>3.421145075544</v>
+        <v>4.22886959575</v>
       </c>
       <c r="R10">
-        <v>30.790305679896</v>
+        <v>38.05982636175001</v>
       </c>
       <c r="S10">
-        <v>0.04287858514255596</v>
+        <v>0.03508655846168519</v>
       </c>
       <c r="T10">
-        <v>0.04287858514255596</v>
+        <v>0.03508655846168518</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.085149333333333</v>
+        <v>4.24731</v>
       </c>
       <c r="H11">
-        <v>12.255448</v>
+        <v>12.74193</v>
       </c>
       <c r="I11">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="J11">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>5.593532</v>
       </c>
       <c r="O11">
-        <v>0.4143329721752205</v>
+        <v>0.2875834480798523</v>
       </c>
       <c r="P11">
-        <v>0.4143329721752204</v>
+        <v>0.2875834480798522</v>
       </c>
       <c r="Q11">
-        <v>7.616804506926221</v>
+        <v>7.919154799639999</v>
       </c>
       <c r="R11">
-        <v>68.55124056233599</v>
+        <v>71.27239319675999</v>
       </c>
       <c r="S11">
-        <v>0.09546446974702097</v>
+        <v>0.0657045296747736</v>
       </c>
       <c r="T11">
-        <v>0.09546446974702097</v>
+        <v>0.06570452967477357</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.085149333333333</v>
+        <v>4.24731</v>
       </c>
       <c r="H12">
-        <v>12.255448</v>
+        <v>12.74193</v>
       </c>
       <c r="I12">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="J12">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.320881333333333</v>
+        <v>2.910118</v>
       </c>
       <c r="N12">
-        <v>3.962644</v>
+        <v>8.730354</v>
       </c>
       <c r="O12">
-        <v>0.2935272500796106</v>
+        <v>0.4488586650219809</v>
       </c>
       <c r="P12">
-        <v>0.2935272500796106</v>
+        <v>0.4488586650219808</v>
       </c>
       <c r="Q12">
-        <v>5.395997498279111</v>
+        <v>12.36017328258</v>
       </c>
       <c r="R12">
-        <v>48.563977484512</v>
+        <v>111.24155954322</v>
       </c>
       <c r="S12">
-        <v>0.06763020364524851</v>
+        <v>0.1025512687626134</v>
       </c>
       <c r="T12">
-        <v>0.06763020364524851</v>
+        <v>0.1025512687626134</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.085149333333333</v>
+        <v>4.24731</v>
       </c>
       <c r="H13">
-        <v>12.255448</v>
+        <v>12.74193</v>
       </c>
       <c r="I13">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="J13">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4771786666666666</v>
+        <v>0.7130856666666667</v>
       </c>
       <c r="N13">
-        <v>1.431536</v>
+        <v>2.139257</v>
       </c>
       <c r="O13">
-        <v>0.1060390046317472</v>
+        <v>0.1099868391543949</v>
       </c>
       <c r="P13">
-        <v>0.1060390046317472</v>
+        <v>0.1099868391543948</v>
       </c>
       <c r="Q13">
-        <v>1.949346112014222</v>
+        <v>3.02869588289</v>
       </c>
       <c r="R13">
-        <v>17.544115008128</v>
+        <v>27.25826294601</v>
       </c>
       <c r="S13">
-        <v>0.02443193766725057</v>
+        <v>0.02512882290446665</v>
       </c>
       <c r="T13">
-        <v>0.02443193766725057</v>
+        <v>0.02512882290446664</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2266433333333333</v>
+        <v>0.2859396666666667</v>
       </c>
       <c r="H14">
-        <v>0.6799299999999999</v>
+        <v>0.8578190000000001</v>
       </c>
       <c r="I14">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="J14">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.837459</v>
+        <v>0.9956583333333334</v>
       </c>
       <c r="N14">
-        <v>2.512377</v>
+        <v>2.986975</v>
       </c>
       <c r="O14">
-        <v>0.1861007731134217</v>
+        <v>0.1535710477437721</v>
       </c>
       <c r="P14">
-        <v>0.1861007731134217</v>
+        <v>0.153571047743772</v>
       </c>
       <c r="Q14">
-        <v>0.18980449929</v>
+        <v>0.2846982119472223</v>
       </c>
       <c r="R14">
-        <v>1.70824049361</v>
+        <v>2.562283907525</v>
       </c>
       <c r="S14">
-        <v>0.002378896013917897</v>
+        <v>0.002362115981883775</v>
       </c>
       <c r="T14">
-        <v>0.002378896013917897</v>
+        <v>0.002362115981883775</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2266433333333333</v>
+        <v>0.2859396666666667</v>
       </c>
       <c r="H15">
-        <v>0.6799299999999999</v>
+        <v>0.8578190000000001</v>
       </c>
       <c r="I15">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="J15">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>5.593532</v>
       </c>
       <c r="O15">
-        <v>0.4143329721752205</v>
+        <v>0.2875834480798523</v>
       </c>
       <c r="P15">
-        <v>0.4143329721752204</v>
+        <v>0.2875834480798522</v>
       </c>
       <c r="Q15">
-        <v>0.4225789125288889</v>
+        <v>0.5331375585231112</v>
       </c>
       <c r="R15">
-        <v>3.803210212759999</v>
+        <v>4.798238026708001</v>
       </c>
       <c r="S15">
-        <v>0.005296351215809652</v>
+        <v>0.00442339535228059</v>
       </c>
       <c r="T15">
-        <v>0.005296351215809651</v>
+        <v>0.004423395352280588</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2266433333333333</v>
+        <v>0.2859396666666667</v>
       </c>
       <c r="H16">
-        <v>0.6799299999999999</v>
+        <v>0.8578190000000001</v>
       </c>
       <c r="I16">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="J16">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.320881333333333</v>
+        <v>2.910118</v>
       </c>
       <c r="N16">
-        <v>3.962644</v>
+        <v>8.730354</v>
       </c>
       <c r="O16">
-        <v>0.2935272500796106</v>
+        <v>0.4488586650219809</v>
       </c>
       <c r="P16">
-        <v>0.2935272500796106</v>
+        <v>0.4488586650219808</v>
       </c>
       <c r="Q16">
-        <v>0.2993689483244444</v>
+        <v>0.8321181708806669</v>
       </c>
       <c r="R16">
-        <v>2.69432053492</v>
+        <v>7.489063537926001</v>
       </c>
       <c r="S16">
-        <v>0.003752111254073602</v>
+        <v>0.00690401115205281</v>
       </c>
       <c r="T16">
-        <v>0.003752111254073601</v>
+        <v>0.006904011152052809</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2266433333333333</v>
+        <v>0.2859396666666667</v>
       </c>
       <c r="H17">
-        <v>0.6799299999999999</v>
+        <v>0.8578190000000001</v>
       </c>
       <c r="I17">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="J17">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4771786666666666</v>
+        <v>0.7130856666666667</v>
       </c>
       <c r="N17">
-        <v>1.431536</v>
+        <v>2.139257</v>
       </c>
       <c r="O17">
-        <v>0.1060390046317472</v>
+        <v>0.1099868391543949</v>
       </c>
       <c r="P17">
-        <v>0.1060390046317472</v>
+        <v>0.1099868391543948</v>
       </c>
       <c r="Q17">
-        <v>0.1081493636088889</v>
+        <v>0.2038994778314445</v>
       </c>
       <c r="R17">
-        <v>0.9733442724799999</v>
+        <v>1.835095300483</v>
       </c>
       <c r="S17">
-        <v>0.001355479406227637</v>
+        <v>0.001691736003500779</v>
       </c>
       <c r="T17">
-        <v>0.001355479406227637</v>
+        <v>0.001691736003500778</v>
       </c>
     </row>
   </sheetData>
